--- a/track.xlsx
+++ b/track.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hp\Desktop\mydashboardv3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C94B059-8F56-4A96-88A9-6D21E7428435}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF7E4EAD-DC66-49DD-BF10-CA2CC78C0C2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="10">
   <si>
     <t>Date</t>
   </si>
@@ -77,8 +77,8 @@
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     <numFmt numFmtId="165" formatCode="h:mm:ss;@"/>
     <numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="169" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="170" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="168" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -236,19 +236,10 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -258,17 +249,17 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="170" fontId="5" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="5" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="5" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="7" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="5" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="7" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="7" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="7" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="7" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="7" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="43" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -277,11 +268,20 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="43" fontId="7" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="7" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="7" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -289,137 +289,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="16">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="thick">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="h:mm:ss;@"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="thick">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="h:mm:ss;@"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="thick">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="thick">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -614,6 +483,137 @@
         <scheme val="minor"/>
       </font>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thick">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="h:mm:ss;@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thick">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="h:mm:ss;@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thick">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thick">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -636,36 +636,36 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{9ACB7924-B034-4D19-8E44-3F0B6AE7B3C9}" name="Date" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{8E1E4785-244E-4A3F-A3C0-7646EFBE1CD1}" name="FROM" dataDxfId="2" dataCellStyle="Comma"/>
-    <tableColumn id="3" xr3:uid="{555CF2F2-7378-4CDA-8061-23F530AB0C2D}" name="TO" dataDxfId="1" dataCellStyle="Comma"/>
-    <tableColumn id="4" xr3:uid="{878733DF-1BF2-49F1-877A-50B4B067893A}" name="CHECK" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{9ACB7924-B034-4D19-8E44-3F0B6AE7B3C9}" name="Date" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{8E1E4785-244E-4A3F-A3C0-7646EFBE1CD1}" name="FROM" dataDxfId="14" dataCellStyle="Comma"/>
+    <tableColumn id="3" xr3:uid="{555CF2F2-7378-4CDA-8061-23F530AB0C2D}" name="TO" dataDxfId="13" dataCellStyle="Comma"/>
+    <tableColumn id="4" xr3:uid="{878733DF-1BF2-49F1-877A-50B4B067893A}" name="CHECK" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9A42150A-74BB-4659-8BE3-C38AE4DF6F2F}" name="Table22" displayName="Table22" ref="E4:H72" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9A42150A-74BB-4659-8BE3-C38AE4DF6F2F}" name="Table22" displayName="Table22" ref="E4:H72" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
   <autoFilter ref="E4:H72" xr:uid="{9A42150A-74BB-4659-8BE3-C38AE4DF6F2F}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{E47A06B2-66D0-4A3B-94F5-F413F13FA3D5}" name="Date" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{263AAFE7-CED9-4BC8-BDF4-682077A1A32F}" name="FROM" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{85D092AB-1643-4507-9EDE-D374E629A267}" name="TO" dataDxfId="11" dataCellStyle="Comma"/>
-    <tableColumn id="4" xr3:uid="{0B7EAA86-C05E-4B44-925F-0BC8C8A53CE4}" name="CHECK" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{E47A06B2-66D0-4A3B-94F5-F413F13FA3D5}" name="Date" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{263AAFE7-CED9-4BC8-BDF4-682077A1A32F}" name="FROM" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{85D092AB-1643-4507-9EDE-D374E629A267}" name="TO" dataDxfId="7" dataCellStyle="Comma"/>
+    <tableColumn id="4" xr3:uid="{0B7EAA86-C05E-4B44-925F-0BC8C8A53CE4}" name="CHECK" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C40EC8C8-11F4-4B98-8E22-DE0BEA09C108}" name="Table224" displayName="Table224" ref="K4:N72" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C40EC8C8-11F4-4B98-8E22-DE0BEA09C108}" name="Table224" displayName="Table224" ref="K4:N72" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
   <autoFilter ref="K4:N72" xr:uid="{C40EC8C8-11F4-4B98-8E22-DE0BEA09C108}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{9034DB75-A35D-40DA-9B02-E245B29B906D}" name="Date" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{9D116230-888C-4DC0-9632-4961EC573E06}" name="FROM" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{A59F171F-3DF7-49EB-BCD6-30A73E3AE642}" name="TO" dataDxfId="5" dataCellStyle="Comma"/>
-    <tableColumn id="4" xr3:uid="{5F9CFA76-FB56-45C5-85EA-F0A0C4814ED9}" name="CHECK" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{9034DB75-A35D-40DA-9B02-E245B29B906D}" name="Date" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{9D116230-888C-4DC0-9632-4961EC573E06}" name="FROM" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{A59F171F-3DF7-49EB-BCD6-30A73E3AE642}" name="TO" dataDxfId="1" dataCellStyle="Comma"/>
+    <tableColumn id="4" xr3:uid="{5F9CFA76-FB56-45C5-85EA-F0A0C4814ED9}" name="CHECK" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -936,8 +936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48F4D59D-8EC0-4300-B06F-D1EA277B0BF1}">
   <dimension ref="A1:P73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -949,8 +949,8 @@
     <col min="6" max="6" width="13.33203125" style="9" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.109375" style="9" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.88671875" style="11" customWidth="1"/>
-    <col min="10" max="10" width="7.88671875" style="12" customWidth="1"/>
+    <col min="9" max="9" width="8.88671875" style="10" customWidth="1"/>
+    <col min="10" max="10" width="7.88671875" style="11" customWidth="1"/>
     <col min="11" max="11" width="31.21875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9.109375" bestFit="1" customWidth="1"/>
@@ -960,83 +960,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="13" t="s">
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="13"/>
-      <c r="K1" s="10" t="s">
+      <c r="J1" s="25"/>
+      <c r="K1" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="13" t="s">
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="13"/>
+      <c r="P1" s="25"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="25">
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="22">
         <f>(I4+J4)/60</f>
-        <v>0.47</v>
-      </c>
-      <c r="J2" s="26">
+        <v>1.0519444444444443</v>
+      </c>
+      <c r="J2" s="23">
         <f>(I4+J4)</f>
-        <v>28.2</v>
-      </c>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="14">
+        <v>63.116666666666667</v>
+      </c>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="26">
         <f>(O4+P4)/60</f>
         <v>0</v>
       </c>
-      <c r="P2" s="14"/>
+      <c r="P2" s="26"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="22" t="s">
+      <c r="A3" s="24"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="22" t="s">
+      <c r="J3" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="22" t="s">
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="P3" s="22" t="s">
+      <c r="P3" s="19" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1065,13 +1065,13 @@
       <c r="H4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="20">
+      <c r="I4" s="17">
         <f>SUM(I5:I72)</f>
-        <v>24</v>
-      </c>
-      <c r="J4" s="21">
+        <v>56</v>
+      </c>
+      <c r="J4" s="18">
         <f>SUM(J5:J72)/60</f>
-        <v>4.2</v>
+        <v>7.1166666666666663</v>
       </c>
       <c r="K4" s="6" t="s">
         <v>0</v>
@@ -1085,1454 +1085,1502 @@
       <c r="N4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O4" s="20">
+      <c r="O4" s="17">
         <f>SUM(O5:O72)</f>
         <v>0</v>
       </c>
-      <c r="P4" s="21">
+      <c r="P4" s="18">
         <f>SUM(P5:P72)/60</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="15">
+      <c r="A5" s="12">
         <v>45224</v>
       </c>
-      <c r="B5" s="16">
+      <c r="B5" s="13">
         <v>0</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="13">
         <v>1.0416666666666667E-3</v>
       </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="15">
+      <c r="D5" s="14"/>
+      <c r="E5" s="12">
         <v>45331</v>
       </c>
-      <c r="F5" s="16">
+      <c r="F5" s="13">
         <v>0</v>
       </c>
-      <c r="G5" s="16">
+      <c r="G5" s="13">
         <v>1.0416666666666667E-3</v>
       </c>
-      <c r="H5" s="24" t="s">
+      <c r="H5" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="18">
+      <c r="I5" s="15">
         <v>2</v>
       </c>
-      <c r="J5" s="19">
+      <c r="J5" s="16">
         <v>21</v>
       </c>
-      <c r="K5" s="15">
+      <c r="K5" s="12">
         <v>45331</v>
       </c>
-      <c r="L5" s="16">
+      <c r="L5" s="13">
         <v>0</v>
       </c>
-      <c r="M5" s="16">
+      <c r="M5" s="13">
         <v>1.0416666666666667E-3</v>
       </c>
-      <c r="N5" s="17"/>
-      <c r="O5" s="18"/>
-      <c r="P5" s="19"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="16"/>
     </row>
     <row r="6" spans="1:16" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="15">
+      <c r="A6" s="12">
         <v>45225</v>
       </c>
-      <c r="B6" s="16">
+      <c r="B6" s="13">
         <v>1.0416666666666667E-3</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="13">
         <v>2.0833333333333333E-3</v>
       </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="15">
+      <c r="D6" s="14"/>
+      <c r="E6" s="12">
         <v>45332</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F6" s="13">
         <v>1.0416666666666667E-3</v>
       </c>
-      <c r="G6" s="16">
+      <c r="G6" s="13">
         <v>2.0833333333333333E-3</v>
       </c>
-      <c r="H6" s="24" t="s">
+      <c r="H6" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="I6" s="18">
+      <c r="I6" s="15">
         <v>1</v>
       </c>
-      <c r="J6" s="19">
+      <c r="J6" s="16">
         <v>4</v>
       </c>
-      <c r="K6" s="15">
+      <c r="K6" s="12">
         <v>45332</v>
       </c>
-      <c r="L6" s="16">
+      <c r="L6" s="13">
         <v>1.0416666666666667E-3</v>
       </c>
-      <c r="M6" s="16">
+      <c r="M6" s="13">
         <v>2.0833333333333333E-3</v>
       </c>
-      <c r="N6" s="17"/>
-      <c r="O6" s="18"/>
-      <c r="P6" s="19"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="16"/>
     </row>
     <row r="7" spans="1:16" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="15">
+      <c r="A7" s="12">
         <v>45226</v>
       </c>
-      <c r="B7" s="16">
+      <c r="B7" s="13">
         <v>2.0833333333333298E-3</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="13">
         <v>3.1250000000000002E-3</v>
       </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="15">
+      <c r="D7" s="14"/>
+      <c r="E7" s="12">
         <v>45333</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F7" s="13">
         <v>2.0833333333333298E-3</v>
       </c>
-      <c r="G7" s="16">
+      <c r="G7" s="13">
         <v>3.1250000000000002E-3</v>
       </c>
-      <c r="H7" s="24" t="s">
+      <c r="H7" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="I7" s="18">
+      <c r="I7" s="15">
         <v>1</v>
       </c>
-      <c r="J7" s="19">
+      <c r="J7" s="16">
         <v>25</v>
       </c>
-      <c r="K7" s="15">
+      <c r="K7" s="12">
         <v>45333</v>
       </c>
-      <c r="L7" s="16">
+      <c r="L7" s="13">
         <v>2.0833333333333298E-3</v>
       </c>
-      <c r="M7" s="16">
+      <c r="M7" s="13">
         <v>3.1250000000000002E-3</v>
       </c>
-      <c r="N7" s="17"/>
-      <c r="O7" s="18"/>
-      <c r="P7" s="19"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="16"/>
     </row>
     <row r="8" spans="1:16" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="15">
+      <c r="A8" s="12">
         <v>45227</v>
       </c>
-      <c r="B8" s="16">
+      <c r="B8" s="13">
         <v>3.1250000000000002E-3</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="13">
         <v>4.1666666666666701E-3</v>
       </c>
-      <c r="D8" s="17"/>
-      <c r="E8" s="15">
+      <c r="D8" s="14"/>
+      <c r="E8" s="12">
         <v>45334</v>
       </c>
-      <c r="F8" s="16">
+      <c r="F8" s="13">
         <v>3.1250000000000002E-3</v>
       </c>
-      <c r="G8" s="16">
+      <c r="G8" s="13">
         <v>4.1666666666666701E-3</v>
       </c>
-      <c r="H8" s="24" t="s">
+      <c r="H8" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="I8" s="23">
+      <c r="I8" s="20">
         <v>0</v>
       </c>
-      <c r="J8" s="19">
+      <c r="J8" s="16">
         <v>38</v>
       </c>
-      <c r="K8" s="15">
+      <c r="K8" s="12">
         <v>45334</v>
       </c>
-      <c r="L8" s="16">
+      <c r="L8" s="13">
         <v>3.1250000000000002E-3</v>
       </c>
-      <c r="M8" s="16">
+      <c r="M8" s="13">
         <v>4.1666666666666701E-3</v>
       </c>
-      <c r="N8" s="17"/>
-      <c r="O8" s="18"/>
-      <c r="P8" s="19"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="16"/>
     </row>
     <row r="9" spans="1:16" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="15">
+      <c r="A9" s="12">
         <v>45228</v>
       </c>
-      <c r="B9" s="16">
+      <c r="B9" s="13">
         <v>4.1666666666666701E-3</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C9" s="13">
         <v>5.20833333333334E-3</v>
       </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="15">
+      <c r="D9" s="14"/>
+      <c r="E9" s="12">
         <v>45335</v>
       </c>
-      <c r="F9" s="16">
+      <c r="F9" s="13">
         <v>4.1666666666666701E-3</v>
       </c>
-      <c r="G9" s="16">
+      <c r="G9" s="13">
         <v>5.20833333333334E-3</v>
       </c>
-      <c r="H9" s="24" t="s">
+      <c r="H9" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="I9" s="18">
+      <c r="I9" s="15">
         <v>2</v>
       </c>
-      <c r="J9" s="19">
+      <c r="J9" s="16">
         <v>41</v>
       </c>
-      <c r="K9" s="15">
+      <c r="K9" s="12">
         <v>45335</v>
       </c>
-      <c r="L9" s="16">
+      <c r="L9" s="13">
         <v>4.1666666666666701E-3</v>
       </c>
-      <c r="M9" s="16">
+      <c r="M9" s="13">
         <v>5.20833333333334E-3</v>
       </c>
-      <c r="N9" s="17"/>
-      <c r="O9" s="18"/>
-      <c r="P9" s="19"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="16"/>
     </row>
     <row r="10" spans="1:16" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="15">
+      <c r="A10" s="12">
         <v>45229</v>
       </c>
-      <c r="B10" s="16">
+      <c r="B10" s="13">
         <v>5.2083333333333296E-3</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10" s="13">
         <v>6.2500000000000003E-3</v>
       </c>
-      <c r="D10" s="17"/>
-      <c r="E10" s="15">
+      <c r="D10" s="14"/>
+      <c r="E10" s="12">
         <v>45336</v>
       </c>
-      <c r="F10" s="16">
+      <c r="F10" s="13">
         <v>5.2083333333333296E-3</v>
       </c>
-      <c r="G10" s="16">
+      <c r="G10" s="13">
         <v>6.2500000000000003E-3</v>
       </c>
-      <c r="H10" s="24" t="s">
+      <c r="H10" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="I10" s="18">
+      <c r="I10" s="15">
         <v>1</v>
       </c>
-      <c r="J10" s="19">
+      <c r="J10" s="16">
         <v>24</v>
       </c>
-      <c r="K10" s="15">
+      <c r="K10" s="12">
         <v>45336</v>
       </c>
-      <c r="L10" s="16">
+      <c r="L10" s="13">
         <v>5.2083333333333296E-3</v>
       </c>
-      <c r="M10" s="16">
+      <c r="M10" s="13">
         <v>6.2500000000000003E-3</v>
       </c>
-      <c r="N10" s="17"/>
-      <c r="O10" s="18"/>
-      <c r="P10" s="19"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="16"/>
     </row>
     <row r="11" spans="1:16" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="15">
+      <c r="A11" s="12">
         <v>45230</v>
       </c>
-      <c r="B11" s="16">
+      <c r="B11" s="13">
         <v>6.2500000000000003E-3</v>
       </c>
-      <c r="C11" s="16">
+      <c r="C11" s="13">
         <v>7.2916666666666703E-3</v>
       </c>
-      <c r="D11" s="17"/>
-      <c r="E11" s="15">
+      <c r="D11" s="14"/>
+      <c r="E11" s="12">
         <v>45337</v>
       </c>
-      <c r="F11" s="16">
+      <c r="F11" s="13">
         <v>6.2500000000000003E-3</v>
       </c>
-      <c r="G11" s="16">
+      <c r="G11" s="13">
         <v>7.2916666666666703E-3</v>
       </c>
-      <c r="H11" s="24" t="s">
+      <c r="H11" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="I11" s="18">
+      <c r="I11" s="15">
         <v>2</v>
       </c>
-      <c r="J11" s="19">
+      <c r="J11" s="16">
         <v>22</v>
       </c>
-      <c r="K11" s="15">
+      <c r="K11" s="12">
         <v>45337</v>
       </c>
-      <c r="L11" s="16">
+      <c r="L11" s="13">
         <v>6.2500000000000003E-3</v>
       </c>
-      <c r="M11" s="16">
+      <c r="M11" s="13">
         <v>7.2916666666666703E-3</v>
       </c>
-      <c r="N11" s="17"/>
-      <c r="O11" s="18"/>
-      <c r="P11" s="19"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="16"/>
     </row>
     <row r="12" spans="1:16" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="15">
+      <c r="A12" s="12">
         <v>45231</v>
       </c>
-      <c r="B12" s="16">
+      <c r="B12" s="13">
         <v>7.2916666666666703E-3</v>
       </c>
-      <c r="C12" s="16">
+      <c r="C12" s="13">
         <v>8.3333333333333402E-3</v>
       </c>
-      <c r="D12" s="17"/>
-      <c r="E12" s="15">
+      <c r="D12" s="14"/>
+      <c r="E12" s="12">
         <v>45338</v>
       </c>
-      <c r="F12" s="16">
+      <c r="F12" s="13">
         <v>7.2916666666666703E-3</v>
       </c>
-      <c r="G12" s="16">
+      <c r="G12" s="13">
         <v>8.3333333333333402E-3</v>
       </c>
-      <c r="H12" s="24" t="s">
+      <c r="H12" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="I12" s="18">
+      <c r="I12" s="15">
         <v>2</v>
       </c>
-      <c r="J12" s="19">
+      <c r="J12" s="16">
         <v>49</v>
       </c>
-      <c r="K12" s="15">
+      <c r="K12" s="12">
         <v>45338</v>
       </c>
-      <c r="L12" s="16">
+      <c r="L12" s="13">
         <v>7.2916666666666703E-3</v>
       </c>
-      <c r="M12" s="16">
+      <c r="M12" s="13">
         <v>8.3333333333333402E-3</v>
       </c>
-      <c r="N12" s="17"/>
-      <c r="O12" s="18"/>
-      <c r="P12" s="19"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="16"/>
     </row>
     <row r="13" spans="1:16" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="15">
+      <c r="A13" s="12">
         <v>45232</v>
       </c>
-      <c r="B13" s="16">
+      <c r="B13" s="13">
         <v>8.3333333333333297E-3</v>
       </c>
-      <c r="C13" s="16">
+      <c r="C13" s="13">
         <v>9.3749999999999997E-3</v>
       </c>
-      <c r="D13" s="17"/>
-      <c r="E13" s="15">
+      <c r="D13" s="14"/>
+      <c r="E13" s="12">
         <v>45339</v>
       </c>
-      <c r="F13" s="16">
+      <c r="F13" s="13">
         <v>8.3333333333333297E-3</v>
       </c>
-      <c r="G13" s="16">
+      <c r="G13" s="13">
         <v>9.3749999999999997E-3</v>
       </c>
-      <c r="H13" s="24" t="s">
+      <c r="H13" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="I13" s="18">
+      <c r="I13" s="15">
         <v>5</v>
       </c>
-      <c r="J13" s="19">
+      <c r="J13" s="16">
         <v>15</v>
       </c>
-      <c r="K13" s="15">
+      <c r="K13" s="12">
         <v>45339</v>
       </c>
-      <c r="L13" s="16">
+      <c r="L13" s="13">
         <v>8.3333333333333297E-3</v>
       </c>
-      <c r="M13" s="16">
+      <c r="M13" s="13">
         <v>9.3749999999999997E-3</v>
       </c>
-      <c r="N13" s="17"/>
-      <c r="O13" s="18"/>
-      <c r="P13" s="19"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="16"/>
     </row>
     <row r="14" spans="1:16" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="15">
+      <c r="A14" s="12">
         <v>45233</v>
       </c>
-      <c r="B14" s="16">
+      <c r="B14" s="13">
         <v>9.3749999999999997E-3</v>
       </c>
-      <c r="C14" s="16">
+      <c r="C14" s="13">
         <v>1.0416666666666701E-2</v>
       </c>
-      <c r="D14" s="17"/>
-      <c r="E14" s="15">
+      <c r="D14" s="14"/>
+      <c r="E14" s="12">
         <v>45340</v>
       </c>
-      <c r="F14" s="16">
+      <c r="F14" s="13">
         <v>9.3749999999999997E-3</v>
       </c>
-      <c r="G14" s="16">
+      <c r="G14" s="13">
         <v>1.0416666666666701E-2</v>
       </c>
-      <c r="H14" s="24" t="s">
+      <c r="H14" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="I14" s="18">
+      <c r="I14" s="15">
         <v>8</v>
       </c>
-      <c r="J14" s="19">
+      <c r="J14" s="16">
         <v>13</v>
       </c>
-      <c r="K14" s="15">
+      <c r="K14" s="12">
         <v>45340</v>
       </c>
-      <c r="L14" s="16">
+      <c r="L14" s="13">
         <v>9.3749999999999997E-3</v>
       </c>
-      <c r="M14" s="16">
+      <c r="M14" s="13">
         <v>1.0416666666666701E-2</v>
       </c>
-      <c r="N14" s="17"/>
-      <c r="O14" s="18"/>
-      <c r="P14" s="19"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="16"/>
     </row>
     <row r="15" spans="1:16" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="15">
+      <c r="A15" s="12">
         <v>45234</v>
       </c>
-      <c r="B15" s="16">
+      <c r="B15" s="13">
         <v>1.0416666666666701E-2</v>
       </c>
-      <c r="C15" s="16">
+      <c r="C15" s="13">
         <v>1.14583333333334E-2</v>
       </c>
-      <c r="D15" s="17"/>
-      <c r="E15" s="15">
+      <c r="D15" s="14"/>
+      <c r="E15" s="12">
         <v>45341</v>
       </c>
-      <c r="F15" s="16">
+      <c r="F15" s="13">
         <v>1.0416666666666701E-2</v>
       </c>
-      <c r="G15" s="16">
+      <c r="G15" s="13">
         <v>1.14583333333334E-2</v>
       </c>
-      <c r="H15" s="17"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="15">
+      <c r="H15" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="I15" s="15">
+        <v>6</v>
+      </c>
+      <c r="J15" s="16">
+        <v>4</v>
+      </c>
+      <c r="K15" s="12">
         <v>45341</v>
       </c>
-      <c r="L15" s="16">
+      <c r="L15" s="13">
         <v>1.0416666666666701E-2</v>
       </c>
-      <c r="M15" s="16">
+      <c r="M15" s="13">
         <v>1.14583333333334E-2</v>
       </c>
-      <c r="N15" s="17"/>
-      <c r="O15" s="18"/>
-      <c r="P15" s="19"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="16"/>
     </row>
     <row r="16" spans="1:16" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="15">
+      <c r="A16" s="12">
         <v>45235</v>
       </c>
-      <c r="B16" s="16">
+      <c r="B16" s="13">
         <v>1.14583333333333E-2</v>
       </c>
-      <c r="C16" s="16">
+      <c r="C16" s="13">
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="D16" s="17"/>
-      <c r="E16" s="15">
+      <c r="D16" s="14"/>
+      <c r="E16" s="12">
         <v>45342</v>
       </c>
-      <c r="F16" s="16">
+      <c r="F16" s="13">
         <v>1.14583333333333E-2</v>
       </c>
-      <c r="G16" s="16">
+      <c r="G16" s="13">
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="H16" s="17"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="15">
+      <c r="H16" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="I16" s="15">
+        <v>2</v>
+      </c>
+      <c r="J16" s="16">
+        <v>25</v>
+      </c>
+      <c r="K16" s="12">
         <v>45342</v>
       </c>
-      <c r="L16" s="16">
+      <c r="L16" s="13">
         <v>1.14583333333333E-2</v>
       </c>
-      <c r="M16" s="16">
+      <c r="M16" s="13">
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="N16" s="17"/>
-      <c r="O16" s="18"/>
-      <c r="P16" s="19"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="15"/>
+      <c r="P16" s="16"/>
     </row>
     <row r="17" spans="1:16" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="15">
+      <c r="A17" s="12">
         <v>45236</v>
       </c>
-      <c r="B17" s="16">
+      <c r="B17" s="13">
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="C17" s="16">
+      <c r="C17" s="13">
         <v>1.35416666666667E-2</v>
       </c>
-      <c r="D17" s="17"/>
-      <c r="E17" s="15">
+      <c r="D17" s="14"/>
+      <c r="E17" s="12">
         <v>45343</v>
       </c>
-      <c r="F17" s="16">
+      <c r="F17" s="13">
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="G17" s="16">
+      <c r="G17" s="13">
         <v>1.35416666666667E-2</v>
       </c>
-      <c r="H17" s="17"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="15">
+      <c r="H17" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="I17" s="15">
+        <v>4</v>
+      </c>
+      <c r="J17" s="16">
+        <v>9</v>
+      </c>
+      <c r="K17" s="12">
         <v>45343</v>
       </c>
-      <c r="L17" s="16">
+      <c r="L17" s="13">
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="M17" s="16">
+      <c r="M17" s="13">
         <v>1.35416666666667E-2</v>
       </c>
-      <c r="N17" s="17"/>
-      <c r="O17" s="18"/>
-      <c r="P17" s="19"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="16"/>
     </row>
     <row r="18" spans="1:16" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="15">
+      <c r="A18" s="12">
         <v>45237</v>
       </c>
-      <c r="B18" s="16">
+      <c r="B18" s="13">
         <v>1.35416666666667E-2</v>
       </c>
-      <c r="C18" s="16">
+      <c r="C18" s="13">
         <v>1.4583333333333399E-2</v>
       </c>
-      <c r="D18" s="17"/>
-      <c r="E18" s="15">
+      <c r="D18" s="14"/>
+      <c r="E18" s="12">
         <v>45344</v>
       </c>
-      <c r="F18" s="16">
+      <c r="F18" s="13">
         <v>1.35416666666667E-2</v>
       </c>
-      <c r="G18" s="16">
+      <c r="G18" s="13">
         <v>1.4583333333333399E-2</v>
       </c>
-      <c r="H18" s="17"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="15">
+      <c r="H18" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="I18" s="15">
+        <v>0</v>
+      </c>
+      <c r="J18" s="16">
+        <v>20</v>
+      </c>
+      <c r="K18" s="12">
         <v>45344</v>
       </c>
-      <c r="L18" s="16">
+      <c r="L18" s="13">
         <v>1.35416666666667E-2</v>
       </c>
-      <c r="M18" s="16">
+      <c r="M18" s="13">
         <v>1.4583333333333399E-2</v>
       </c>
-      <c r="N18" s="17"/>
-      <c r="O18" s="18"/>
-      <c r="P18" s="19"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="15"/>
+      <c r="P18" s="16"/>
     </row>
     <row r="19" spans="1:16" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="15">
+      <c r="A19" s="12">
         <v>45238</v>
       </c>
-      <c r="B19" s="16">
+      <c r="B19" s="13">
         <v>1.4583333333333301E-2</v>
       </c>
-      <c r="C19" s="16">
+      <c r="C19" s="13">
         <v>1.5625E-2</v>
       </c>
-      <c r="D19" s="17"/>
-      <c r="E19" s="15">
+      <c r="D19" s="14"/>
+      <c r="E19" s="12">
         <v>45345</v>
       </c>
-      <c r="F19" s="16">
+      <c r="F19" s="13">
         <v>1.4583333333333301E-2</v>
       </c>
-      <c r="G19" s="16">
+      <c r="G19" s="13">
         <v>1.5625E-2</v>
       </c>
-      <c r="H19" s="17"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="15">
+      <c r="H19" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="I19" s="15">
+        <v>2</v>
+      </c>
+      <c r="J19" s="16">
+        <v>34</v>
+      </c>
+      <c r="K19" s="12">
         <v>45345</v>
       </c>
-      <c r="L19" s="16">
+      <c r="L19" s="13">
         <v>1.4583333333333301E-2</v>
       </c>
-      <c r="M19" s="16">
+      <c r="M19" s="13">
         <v>1.5625E-2</v>
       </c>
-      <c r="N19" s="17"/>
-      <c r="O19" s="18"/>
-      <c r="P19" s="19"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="15"/>
+      <c r="P19" s="16"/>
     </row>
     <row r="20" spans="1:16" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="15">
+      <c r="A20" s="12">
         <v>45239</v>
       </c>
-      <c r="B20" s="16">
+      <c r="B20" s="13">
         <v>1.5625E-2</v>
       </c>
-      <c r="C20" s="16">
+      <c r="C20" s="13">
         <v>1.6666666666666701E-2</v>
       </c>
-      <c r="D20" s="17"/>
-      <c r="E20" s="15">
+      <c r="D20" s="14"/>
+      <c r="E20" s="12">
         <v>45346</v>
       </c>
-      <c r="F20" s="16">
+      <c r="F20" s="13">
         <v>1.5625E-2</v>
       </c>
-      <c r="G20" s="16">
+      <c r="G20" s="13">
         <v>1.6666666666666701E-2</v>
       </c>
-      <c r="H20" s="17"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="15">
+      <c r="H20" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="I20" s="15">
+        <v>4</v>
+      </c>
+      <c r="J20" s="16">
+        <v>27</v>
+      </c>
+      <c r="K20" s="12">
         <v>45346</v>
       </c>
-      <c r="L20" s="16">
+      <c r="L20" s="13">
         <v>1.5625E-2</v>
       </c>
-      <c r="M20" s="16">
+      <c r="M20" s="13">
         <v>1.6666666666666701E-2</v>
       </c>
-      <c r="N20" s="17"/>
-      <c r="O20" s="18"/>
-      <c r="P20" s="19"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="15"/>
+      <c r="P20" s="16"/>
     </row>
     <row r="21" spans="1:16" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="15">
+      <c r="A21" s="12">
         <v>45240</v>
       </c>
-      <c r="B21" s="16">
+      <c r="B21" s="13">
         <v>1.6666666666666701E-2</v>
       </c>
-      <c r="C21" s="16">
+      <c r="C21" s="13">
         <v>1.7708333333333399E-2</v>
       </c>
-      <c r="D21" s="17"/>
-      <c r="E21" s="15">
+      <c r="D21" s="14"/>
+      <c r="E21" s="12">
         <v>45347</v>
       </c>
-      <c r="F21" s="16">
+      <c r="F21" s="13">
         <v>1.6666666666666701E-2</v>
       </c>
-      <c r="G21" s="16">
+      <c r="G21" s="13">
         <v>1.7708333333333399E-2</v>
       </c>
-      <c r="H21" s="17"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="15">
+      <c r="H21" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="I21" s="15">
+        <v>7</v>
+      </c>
+      <c r="J21" s="16">
+        <v>39</v>
+      </c>
+      <c r="K21" s="12">
         <v>45347</v>
       </c>
-      <c r="L21" s="16">
+      <c r="L21" s="13">
         <v>1.6666666666666701E-2</v>
       </c>
-      <c r="M21" s="16">
+      <c r="M21" s="13">
         <v>1.7708333333333399E-2</v>
       </c>
-      <c r="N21" s="17"/>
-      <c r="O21" s="18"/>
-      <c r="P21" s="19"/>
+      <c r="N21" s="14"/>
+      <c r="O21" s="15"/>
+      <c r="P21" s="16"/>
     </row>
     <row r="22" spans="1:16" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="15">
+      <c r="A22" s="12">
         <v>45241</v>
       </c>
-      <c r="B22" s="16">
+      <c r="B22" s="13">
         <v>1.7708333333333302E-2</v>
       </c>
-      <c r="C22" s="16">
+      <c r="C22" s="13">
         <v>1.8749999999999999E-2</v>
       </c>
-      <c r="D22" s="17"/>
-      <c r="E22" s="15">
+      <c r="D22" s="14"/>
+      <c r="E22" s="12">
         <v>45348</v>
       </c>
-      <c r="F22" s="16">
+      <c r="F22" s="13">
         <v>1.7708333333333302E-2</v>
       </c>
-      <c r="G22" s="16">
+      <c r="G22" s="13">
         <v>1.8749999999999999E-2</v>
       </c>
-      <c r="H22" s="17"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="19"/>
-      <c r="K22" s="15">
+      <c r="H22" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="I22" s="15">
+        <v>7</v>
+      </c>
+      <c r="J22" s="16">
+        <v>17</v>
+      </c>
+      <c r="K22" s="12">
         <v>45348</v>
       </c>
-      <c r="L22" s="16">
+      <c r="L22" s="13">
         <v>1.7708333333333302E-2</v>
       </c>
-      <c r="M22" s="16">
+      <c r="M22" s="13">
         <v>1.8749999999999999E-2</v>
       </c>
-      <c r="N22" s="17"/>
-      <c r="O22" s="18"/>
-      <c r="P22" s="19"/>
+      <c r="N22" s="14"/>
+      <c r="O22" s="15"/>
+      <c r="P22" s="16"/>
     </row>
     <row r="23" spans="1:16" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="15">
+      <c r="A23" s="12">
         <v>45242</v>
       </c>
-      <c r="B23" s="16">
+      <c r="B23" s="13">
         <v>1.8749999999999999E-2</v>
       </c>
-      <c r="C23" s="16">
+      <c r="C23" s="13">
         <v>1.97916666666667E-2</v>
       </c>
-      <c r="D23" s="17"/>
-      <c r="E23" s="15">
+      <c r="D23" s="14"/>
+      <c r="E23" s="12">
         <v>45349</v>
       </c>
-      <c r="F23" s="16">
+      <c r="F23" s="13">
         <v>1.8749999999999999E-2</v>
       </c>
-      <c r="G23" s="16">
+      <c r="G23" s="13">
         <v>1.97916666666667E-2</v>
       </c>
-      <c r="H23" s="17"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="19"/>
-      <c r="K23" s="15">
+      <c r="H23" s="14"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="12">
         <v>45349</v>
       </c>
-      <c r="L23" s="16">
+      <c r="L23" s="13">
         <v>1.8749999999999999E-2</v>
       </c>
-      <c r="M23" s="16">
+      <c r="M23" s="13">
         <v>1.97916666666667E-2</v>
       </c>
-      <c r="N23" s="17"/>
-      <c r="O23" s="18"/>
-      <c r="P23" s="19"/>
+      <c r="N23" s="14"/>
+      <c r="O23" s="15"/>
+      <c r="P23" s="16"/>
     </row>
     <row r="24" spans="1:16" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="15">
+      <c r="A24" s="12">
         <v>45243</v>
       </c>
-      <c r="B24" s="16">
+      <c r="B24" s="13">
         <v>1.97916666666667E-2</v>
       </c>
-      <c r="C24" s="16">
+      <c r="C24" s="13">
         <v>2.0833333333333402E-2</v>
       </c>
-      <c r="D24" s="17"/>
-      <c r="E24" s="15">
+      <c r="D24" s="14"/>
+      <c r="E24" s="12">
         <v>45350</v>
       </c>
-      <c r="F24" s="16">
+      <c r="F24" s="13">
         <v>1.97916666666667E-2</v>
       </c>
-      <c r="G24" s="16">
+      <c r="G24" s="13">
         <v>2.0833333333333402E-2</v>
       </c>
-      <c r="H24" s="17"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="19"/>
-      <c r="K24" s="15">
+      <c r="H24" s="14"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="12">
         <v>45350</v>
       </c>
-      <c r="L24" s="16">
+      <c r="L24" s="13">
         <v>1.97916666666667E-2</v>
       </c>
-      <c r="M24" s="16">
+      <c r="M24" s="13">
         <v>2.0833333333333402E-2</v>
       </c>
-      <c r="N24" s="17"/>
-      <c r="O24" s="18"/>
-      <c r="P24" s="19"/>
+      <c r="N24" s="14"/>
+      <c r="O24" s="15"/>
+      <c r="P24" s="16"/>
     </row>
     <row r="25" spans="1:16" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="15">
+      <c r="A25" s="12">
         <v>45244</v>
       </c>
-      <c r="B25" s="16">
+      <c r="B25" s="13">
         <v>2.0833333333333301E-2</v>
       </c>
-      <c r="C25" s="16">
+      <c r="C25" s="13">
         <v>2.1874999999999999E-2</v>
       </c>
-      <c r="D25" s="17"/>
-      <c r="E25" s="15">
+      <c r="D25" s="14"/>
+      <c r="E25" s="12">
         <v>45351</v>
       </c>
-      <c r="F25" s="16">
+      <c r="F25" s="13">
         <v>2.0833333333333301E-2</v>
       </c>
-      <c r="G25" s="16">
+      <c r="G25" s="13">
         <v>2.1874999999999999E-2</v>
       </c>
-      <c r="H25" s="17"/>
-      <c r="I25" s="18"/>
-      <c r="J25" s="19"/>
-      <c r="K25" s="15">
+      <c r="H25" s="14"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="12">
         <v>45351</v>
       </c>
-      <c r="L25" s="16">
+      <c r="L25" s="13">
         <v>2.0833333333333301E-2</v>
       </c>
-      <c r="M25" s="16">
+      <c r="M25" s="13">
         <v>2.1874999999999999E-2</v>
       </c>
-      <c r="N25" s="17"/>
-      <c r="O25" s="18"/>
-      <c r="P25" s="19"/>
+      <c r="N25" s="14"/>
+      <c r="O25" s="15"/>
+      <c r="P25" s="16"/>
     </row>
     <row r="26" spans="1:16" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="15">
+      <c r="A26" s="12">
         <v>45245</v>
       </c>
-      <c r="B26" s="16">
+      <c r="B26" s="13">
         <v>2.1874999999999999E-2</v>
       </c>
-      <c r="C26" s="16">
+      <c r="C26" s="13">
         <v>2.29166666666667E-2</v>
       </c>
-      <c r="D26" s="17"/>
-      <c r="E26" s="15">
+      <c r="D26" s="14"/>
+      <c r="E26" s="12">
         <v>45352</v>
       </c>
-      <c r="F26" s="16">
+      <c r="F26" s="13">
         <v>2.1874999999999999E-2</v>
       </c>
-      <c r="G26" s="16">
+      <c r="G26" s="13">
         <v>2.29166666666667E-2</v>
       </c>
-      <c r="H26" s="17"/>
-      <c r="I26" s="18"/>
-      <c r="J26" s="19"/>
-      <c r="K26" s="15">
+      <c r="H26" s="14"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="12">
         <v>45352</v>
       </c>
-      <c r="L26" s="16">
+      <c r="L26" s="13">
         <v>2.1874999999999999E-2</v>
       </c>
-      <c r="M26" s="16">
+      <c r="M26" s="13">
         <v>2.29166666666667E-2</v>
       </c>
-      <c r="N26" s="17"/>
-      <c r="O26" s="18"/>
-      <c r="P26" s="19"/>
+      <c r="N26" s="14"/>
+      <c r="O26" s="15"/>
+      <c r="P26" s="16"/>
     </row>
     <row r="27" spans="1:16" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="15">
+      <c r="A27" s="12">
         <v>45246</v>
       </c>
-      <c r="B27" s="16">
+      <c r="B27" s="13">
         <v>2.29166666666667E-2</v>
       </c>
-      <c r="C27" s="16">
+      <c r="C27" s="13">
         <v>2.3958333333333401E-2</v>
       </c>
-      <c r="D27" s="17"/>
-      <c r="E27" s="15">
+      <c r="D27" s="14"/>
+      <c r="E27" s="12">
         <v>45353</v>
       </c>
-      <c r="F27" s="16">
+      <c r="F27" s="13">
         <v>2.29166666666667E-2</v>
       </c>
-      <c r="G27" s="16">
+      <c r="G27" s="13">
         <v>2.3958333333333401E-2</v>
       </c>
-      <c r="H27" s="17"/>
-      <c r="I27" s="18"/>
-      <c r="J27" s="19"/>
-      <c r="K27" s="15">
+      <c r="H27" s="14"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="12">
         <v>45353</v>
       </c>
-      <c r="L27" s="16">
+      <c r="L27" s="13">
         <v>2.29166666666667E-2</v>
       </c>
-      <c r="M27" s="16">
+      <c r="M27" s="13">
         <v>2.3958333333333401E-2</v>
       </c>
-      <c r="N27" s="17"/>
-      <c r="O27" s="18"/>
-      <c r="P27" s="19"/>
+      <c r="N27" s="14"/>
+      <c r="O27" s="15"/>
+      <c r="P27" s="16"/>
     </row>
     <row r="28" spans="1:16" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="15">
+      <c r="A28" s="12">
         <v>45247</v>
       </c>
-      <c r="B28" s="16">
+      <c r="B28" s="13">
         <v>2.39583333333333E-2</v>
       </c>
-      <c r="C28" s="16">
+      <c r="C28" s="13">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="D28" s="17"/>
-      <c r="E28" s="15">
+      <c r="D28" s="14"/>
+      <c r="E28" s="12">
         <v>45354</v>
       </c>
-      <c r="F28" s="16">
+      <c r="F28" s="13">
         <v>2.39583333333333E-2</v>
       </c>
-      <c r="G28" s="16">
+      <c r="G28" s="13">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="H28" s="17"/>
-      <c r="I28" s="18"/>
-      <c r="J28" s="19"/>
-      <c r="K28" s="15">
+      <c r="H28" s="14"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="12">
         <v>45354</v>
       </c>
-      <c r="L28" s="16">
+      <c r="L28" s="13">
         <v>2.39583333333333E-2</v>
       </c>
-      <c r="M28" s="16">
+      <c r="M28" s="13">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="N28" s="17"/>
-      <c r="O28" s="18"/>
-      <c r="P28" s="19"/>
+      <c r="N28" s="14"/>
+      <c r="O28" s="15"/>
+      <c r="P28" s="16"/>
     </row>
     <row r="29" spans="1:16" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="15">
+      <c r="A29" s="12">
         <v>45248</v>
       </c>
-      <c r="B29" s="16">
+      <c r="B29" s="13">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="C29" s="16">
+      <c r="C29" s="13">
         <v>2.6041666666666699E-2</v>
       </c>
-      <c r="D29" s="17"/>
-      <c r="E29" s="15">
+      <c r="D29" s="14"/>
+      <c r="E29" s="12">
         <v>45355</v>
       </c>
-      <c r="F29" s="16">
+      <c r="F29" s="13">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="G29" s="16">
+      <c r="G29" s="13">
         <v>2.6041666666666699E-2</v>
       </c>
-      <c r="H29" s="17"/>
-      <c r="I29" s="18"/>
-      <c r="J29" s="19"/>
-      <c r="K29" s="15">
+      <c r="H29" s="14"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="12">
         <v>45355</v>
       </c>
-      <c r="L29" s="16">
+      <c r="L29" s="13">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="M29" s="16">
+      <c r="M29" s="13">
         <v>2.6041666666666699E-2</v>
       </c>
-      <c r="N29" s="17"/>
-      <c r="O29" s="18"/>
-      <c r="P29" s="19"/>
+      <c r="N29" s="14"/>
+      <c r="O29" s="15"/>
+      <c r="P29" s="16"/>
     </row>
     <row r="30" spans="1:16" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="15">
+      <c r="A30" s="12">
         <v>45249</v>
       </c>
-      <c r="B30" s="16">
+      <c r="B30" s="13">
         <v>2.6041666666666699E-2</v>
       </c>
-      <c r="C30" s="16">
+      <c r="C30" s="13">
         <v>2.70833333333334E-2</v>
       </c>
-      <c r="D30" s="17"/>
-      <c r="E30" s="15">
+      <c r="D30" s="14"/>
+      <c r="E30" s="12">
         <v>45356</v>
       </c>
-      <c r="F30" s="16">
+      <c r="F30" s="13">
         <v>2.6041666666666699E-2</v>
       </c>
-      <c r="G30" s="16">
+      <c r="G30" s="13">
         <v>2.70833333333334E-2</v>
       </c>
-      <c r="H30" s="17"/>
-      <c r="I30" s="18"/>
-      <c r="J30" s="19"/>
-      <c r="K30" s="15">
+      <c r="H30" s="14"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="16"/>
+      <c r="K30" s="12">
         <v>45356</v>
       </c>
-      <c r="L30" s="16">
+      <c r="L30" s="13">
         <v>2.6041666666666699E-2</v>
       </c>
-      <c r="M30" s="16">
+      <c r="M30" s="13">
         <v>2.70833333333334E-2</v>
       </c>
-      <c r="N30" s="17"/>
-      <c r="O30" s="18"/>
-      <c r="P30" s="19"/>
+      <c r="N30" s="14"/>
+      <c r="O30" s="15"/>
+      <c r="P30" s="16"/>
     </row>
     <row r="31" spans="1:16" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="15">
+      <c r="A31" s="12">
         <v>45250</v>
       </c>
-      <c r="B31" s="16">
+      <c r="B31" s="13">
         <v>2.70833333333333E-2</v>
       </c>
-      <c r="C31" s="16">
+      <c r="C31" s="13">
         <v>2.8125000000000001E-2</v>
       </c>
-      <c r="D31" s="17"/>
-      <c r="E31" s="15">
+      <c r="D31" s="14"/>
+      <c r="E31" s="12">
         <v>45357</v>
       </c>
-      <c r="F31" s="16">
+      <c r="F31" s="13">
         <v>2.70833333333333E-2</v>
       </c>
-      <c r="G31" s="16">
+      <c r="G31" s="13">
         <v>2.8125000000000001E-2</v>
       </c>
-      <c r="H31" s="17"/>
-      <c r="I31" s="18"/>
-      <c r="J31" s="19"/>
-      <c r="K31" s="15">
+      <c r="H31" s="14"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="12">
         <v>45357</v>
       </c>
-      <c r="L31" s="16">
+      <c r="L31" s="13">
         <v>2.70833333333333E-2</v>
       </c>
-      <c r="M31" s="16">
+      <c r="M31" s="13">
         <v>2.8125000000000001E-2</v>
       </c>
-      <c r="N31" s="17"/>
-      <c r="O31" s="18"/>
-      <c r="P31" s="19"/>
+      <c r="N31" s="14"/>
+      <c r="O31" s="15"/>
+      <c r="P31" s="16"/>
     </row>
     <row r="32" spans="1:16" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="15">
+      <c r="A32" s="12">
         <v>45251</v>
       </c>
-      <c r="B32" s="16">
+      <c r="B32" s="13">
         <v>2.8125000000000001E-2</v>
       </c>
-      <c r="C32" s="16">
+      <c r="C32" s="13">
         <v>2.9166666666666698E-2</v>
       </c>
-      <c r="D32" s="17"/>
-      <c r="E32" s="15">
+      <c r="D32" s="14"/>
+      <c r="E32" s="12">
         <v>45358</v>
       </c>
-      <c r="F32" s="16">
+      <c r="F32" s="13">
         <v>2.8125000000000001E-2</v>
       </c>
-      <c r="G32" s="16">
+      <c r="G32" s="13">
         <v>2.9166666666666698E-2</v>
       </c>
-      <c r="H32" s="17"/>
-      <c r="I32" s="18"/>
-      <c r="J32" s="19"/>
-      <c r="K32" s="15">
+      <c r="H32" s="14"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="12">
         <v>45358</v>
       </c>
-      <c r="L32" s="16">
+      <c r="L32" s="13">
         <v>2.8125000000000001E-2</v>
       </c>
-      <c r="M32" s="16">
+      <c r="M32" s="13">
         <v>2.9166666666666698E-2</v>
       </c>
-      <c r="N32" s="17"/>
-      <c r="O32" s="18"/>
-      <c r="P32" s="19"/>
+      <c r="N32" s="14"/>
+      <c r="O32" s="15"/>
+      <c r="P32" s="16"/>
     </row>
     <row r="33" spans="1:16" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="15">
+      <c r="A33" s="12">
         <v>45252</v>
       </c>
-      <c r="B33" s="16">
+      <c r="B33" s="13">
         <v>2.9166666666666698E-2</v>
       </c>
-      <c r="C33" s="16">
+      <c r="C33" s="13">
         <v>3.0208333333333399E-2</v>
       </c>
-      <c r="D33" s="17"/>
-      <c r="E33" s="15">
+      <c r="D33" s="14"/>
+      <c r="E33" s="12">
         <v>45359</v>
       </c>
-      <c r="F33" s="16">
+      <c r="F33" s="13">
         <v>2.9166666666666698E-2</v>
       </c>
-      <c r="G33" s="16">
+      <c r="G33" s="13">
         <v>3.0208333333333399E-2</v>
       </c>
-      <c r="H33" s="17"/>
-      <c r="I33" s="18"/>
-      <c r="J33" s="19"/>
-      <c r="K33" s="15">
+      <c r="H33" s="14"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="16"/>
+      <c r="K33" s="12">
         <v>45359</v>
       </c>
-      <c r="L33" s="16">
+      <c r="L33" s="13">
         <v>2.9166666666666698E-2</v>
       </c>
-      <c r="M33" s="16">
+      <c r="M33" s="13">
         <v>3.0208333333333399E-2</v>
       </c>
-      <c r="N33" s="17"/>
-      <c r="O33" s="18"/>
-      <c r="P33" s="19"/>
+      <c r="N33" s="14"/>
+      <c r="O33" s="15"/>
+      <c r="P33" s="16"/>
     </row>
     <row r="34" spans="1:16" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="15">
+      <c r="A34" s="12">
         <v>45253</v>
       </c>
-      <c r="B34" s="16">
+      <c r="B34" s="13">
         <v>3.0208333333333299E-2</v>
       </c>
-      <c r="C34" s="16">
+      <c r="C34" s="13">
         <v>3.125E-2</v>
       </c>
-      <c r="D34" s="17"/>
-      <c r="E34" s="15">
+      <c r="D34" s="14"/>
+      <c r="E34" s="12">
         <v>45360</v>
       </c>
-      <c r="F34" s="16">
+      <c r="F34" s="13">
         <v>3.0208333333333299E-2</v>
       </c>
-      <c r="G34" s="16">
+      <c r="G34" s="13">
         <v>3.125E-2</v>
       </c>
-      <c r="H34" s="17"/>
-      <c r="I34" s="18"/>
-      <c r="J34" s="19"/>
-      <c r="K34" s="15">
+      <c r="H34" s="14"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="12">
         <v>45360</v>
       </c>
-      <c r="L34" s="16">
+      <c r="L34" s="13">
         <v>3.0208333333333299E-2</v>
       </c>
-      <c r="M34" s="16">
+      <c r="M34" s="13">
         <v>3.125E-2</v>
       </c>
-      <c r="N34" s="17"/>
-      <c r="O34" s="18"/>
-      <c r="P34" s="19"/>
+      <c r="N34" s="14"/>
+      <c r="O34" s="15"/>
+      <c r="P34" s="16"/>
     </row>
     <row r="35" spans="1:16" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="15">
+      <c r="A35" s="12">
         <v>45254</v>
       </c>
-      <c r="B35" s="16">
+      <c r="B35" s="13">
         <v>3.125E-2</v>
       </c>
-      <c r="C35" s="16">
+      <c r="C35" s="13">
         <v>3.2291666666666698E-2</v>
       </c>
-      <c r="D35" s="17"/>
-      <c r="E35" s="15">
+      <c r="D35" s="14"/>
+      <c r="E35" s="12">
         <v>45361</v>
       </c>
-      <c r="F35" s="16">
+      <c r="F35" s="13">
         <v>3.125E-2</v>
       </c>
-      <c r="G35" s="16">
+      <c r="G35" s="13">
         <v>3.2291666666666698E-2</v>
       </c>
-      <c r="H35" s="17"/>
-      <c r="I35" s="18"/>
-      <c r="J35" s="19"/>
-      <c r="K35" s="15">
+      <c r="H35" s="14"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="16"/>
+      <c r="K35" s="12">
         <v>45361</v>
       </c>
-      <c r="L35" s="16">
+      <c r="L35" s="13">
         <v>3.125E-2</v>
       </c>
-      <c r="M35" s="16">
+      <c r="M35" s="13">
         <v>3.2291666666666698E-2</v>
       </c>
-      <c r="N35" s="17"/>
-      <c r="O35" s="18"/>
-      <c r="P35" s="19"/>
+      <c r="N35" s="14"/>
+      <c r="O35" s="15"/>
+      <c r="P35" s="16"/>
     </row>
     <row r="36" spans="1:16" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="15">
+      <c r="A36" s="12">
         <v>45255</v>
       </c>
-      <c r="B36" s="16">
+      <c r="B36" s="13">
         <v>3.2291666666666698E-2</v>
       </c>
-      <c r="C36" s="16">
+      <c r="C36" s="13">
         <v>3.3333333333333402E-2</v>
       </c>
-      <c r="D36" s="17"/>
-      <c r="E36" s="15">
+      <c r="D36" s="14"/>
+      <c r="E36" s="12">
         <v>45362</v>
       </c>
-      <c r="F36" s="16">
+      <c r="F36" s="13">
         <v>3.2291666666666698E-2</v>
       </c>
-      <c r="G36" s="16">
+      <c r="G36" s="13">
         <v>3.3333333333333402E-2</v>
       </c>
-      <c r="H36" s="17"/>
-      <c r="I36" s="18"/>
-      <c r="J36" s="19"/>
-      <c r="K36" s="15">
+      <c r="H36" s="14"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="16"/>
+      <c r="K36" s="12">
         <v>45362</v>
       </c>
-      <c r="L36" s="16">
+      <c r="L36" s="13">
         <v>3.2291666666666698E-2</v>
       </c>
-      <c r="M36" s="16">
+      <c r="M36" s="13">
         <v>3.3333333333333402E-2</v>
       </c>
-      <c r="N36" s="17"/>
-      <c r="O36" s="18"/>
-      <c r="P36" s="19"/>
+      <c r="N36" s="14"/>
+      <c r="O36" s="15"/>
+      <c r="P36" s="16"/>
     </row>
     <row r="37" spans="1:16" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="15">
+      <c r="A37" s="12">
         <v>45256</v>
       </c>
-      <c r="B37" s="16">
+      <c r="B37" s="13">
         <v>3.3333333333333298E-2</v>
       </c>
-      <c r="C37" s="16">
+      <c r="C37" s="13">
         <v>3.4375000000000003E-2</v>
       </c>
-      <c r="D37" s="17"/>
-      <c r="E37" s="15">
+      <c r="D37" s="14"/>
+      <c r="E37" s="12">
         <v>45363</v>
       </c>
-      <c r="F37" s="16">
+      <c r="F37" s="13">
         <v>3.3333333333333298E-2</v>
       </c>
-      <c r="G37" s="16">
+      <c r="G37" s="13">
         <v>3.4375000000000003E-2</v>
       </c>
-      <c r="H37" s="17"/>
-      <c r="I37" s="18"/>
-      <c r="J37" s="19"/>
-      <c r="K37" s="15">
+      <c r="H37" s="14"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="16"/>
+      <c r="K37" s="12">
         <v>45363</v>
       </c>
-      <c r="L37" s="16">
+      <c r="L37" s="13">
         <v>3.3333333333333298E-2</v>
       </c>
-      <c r="M37" s="16">
+      <c r="M37" s="13">
         <v>3.4375000000000003E-2</v>
       </c>
-      <c r="N37" s="17"/>
-      <c r="O37" s="18"/>
-      <c r="P37" s="19"/>
+      <c r="N37" s="14"/>
+      <c r="O37" s="15"/>
+      <c r="P37" s="16"/>
     </row>
     <row r="38" spans="1:16" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="15">
+      <c r="A38" s="12">
         <v>45257</v>
       </c>
-      <c r="B38" s="16">
+      <c r="B38" s="13">
         <v>3.4375000000000003E-2</v>
       </c>
-      <c r="C38" s="16">
+      <c r="C38" s="13">
         <v>3.54166666666667E-2</v>
       </c>
-      <c r="D38" s="17"/>
-      <c r="E38" s="15">
+      <c r="D38" s="14"/>
+      <c r="E38" s="12">
         <v>45364</v>
       </c>
-      <c r="F38" s="16">
+      <c r="F38" s="13">
         <v>3.4375000000000003E-2</v>
       </c>
-      <c r="G38" s="16">
+      <c r="G38" s="13">
         <v>3.54166666666667E-2</v>
       </c>
-      <c r="H38" s="17"/>
-      <c r="I38" s="18"/>
-      <c r="J38" s="19"/>
-      <c r="K38" s="15">
+      <c r="H38" s="14"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="16"/>
+      <c r="K38" s="12">
         <v>45364</v>
       </c>
-      <c r="L38" s="16">
+      <c r="L38" s="13">
         <v>3.4375000000000003E-2</v>
       </c>
-      <c r="M38" s="16">
+      <c r="M38" s="13">
         <v>3.54166666666667E-2</v>
       </c>
-      <c r="N38" s="17"/>
-      <c r="O38" s="18"/>
-      <c r="P38" s="19"/>
+      <c r="N38" s="14"/>
+      <c r="O38" s="15"/>
+      <c r="P38" s="16"/>
     </row>
     <row r="39" spans="1:16" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="15">
+      <c r="A39" s="12">
         <v>45258</v>
       </c>
-      <c r="B39" s="16">
+      <c r="B39" s="13">
         <v>3.54166666666667E-2</v>
       </c>
-      <c r="C39" s="16">
+      <c r="C39" s="13">
         <v>3.6458333333333398E-2</v>
       </c>
-      <c r="D39" s="17"/>
-      <c r="E39" s="15">
+      <c r="D39" s="14"/>
+      <c r="E39" s="12">
         <v>45365</v>
       </c>
-      <c r="F39" s="16">
+      <c r="F39" s="13">
         <v>3.54166666666667E-2</v>
       </c>
-      <c r="G39" s="16">
+      <c r="G39" s="13">
         <v>3.6458333333333398E-2</v>
       </c>
-      <c r="H39" s="17"/>
-      <c r="I39" s="18"/>
-      <c r="J39" s="19"/>
-      <c r="K39" s="15">
+      <c r="H39" s="14"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="16"/>
+      <c r="K39" s="12">
         <v>45365</v>
       </c>
-      <c r="L39" s="16">
+      <c r="L39" s="13">
         <v>3.54166666666667E-2</v>
       </c>
-      <c r="M39" s="16">
+      <c r="M39" s="13">
         <v>3.6458333333333398E-2</v>
       </c>
-      <c r="N39" s="17"/>
-      <c r="O39" s="18"/>
-      <c r="P39" s="19"/>
+      <c r="N39" s="14"/>
+      <c r="O39" s="15"/>
+      <c r="P39" s="16"/>
     </row>
     <row r="40" spans="1:16" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="15">
+      <c r="A40" s="12">
         <v>45259</v>
       </c>
-      <c r="B40" s="16">
+      <c r="B40" s="13">
         <v>3.6458333333333301E-2</v>
       </c>
-      <c r="C40" s="16">
+      <c r="C40" s="13">
         <v>3.7499999999999999E-2</v>
       </c>
-      <c r="D40" s="17"/>
-      <c r="E40" s="15">
+      <c r="D40" s="14"/>
+      <c r="E40" s="12">
         <v>45366</v>
       </c>
-      <c r="F40" s="16">
+      <c r="F40" s="13">
         <v>3.6458333333333301E-2</v>
       </c>
-      <c r="G40" s="16">
+      <c r="G40" s="13">
         <v>3.7499999999999999E-2</v>
       </c>
-      <c r="H40" s="17"/>
-      <c r="I40" s="18"/>
-      <c r="J40" s="19"/>
-      <c r="K40" s="15">
+      <c r="H40" s="14"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="16"/>
+      <c r="K40" s="12">
         <v>45366</v>
       </c>
-      <c r="L40" s="16">
+      <c r="L40" s="13">
         <v>3.6458333333333301E-2</v>
       </c>
-      <c r="M40" s="16">
+      <c r="M40" s="13">
         <v>3.7499999999999999E-2</v>
       </c>
-      <c r="N40" s="17"/>
-      <c r="O40" s="18"/>
-      <c r="P40" s="19"/>
+      <c r="N40" s="14"/>
+      <c r="O40" s="15"/>
+      <c r="P40" s="16"/>
     </row>
     <row r="41" spans="1:16" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="15">
+      <c r="A41" s="12">
         <v>45260</v>
       </c>
-      <c r="B41" s="16">
+      <c r="B41" s="13">
         <v>3.7499999999999999E-2</v>
       </c>
-      <c r="C41" s="16">
+      <c r="C41" s="13">
         <v>3.8541666666666703E-2</v>
       </c>
-      <c r="D41" s="17"/>
-      <c r="E41" s="15">
+      <c r="D41" s="14"/>
+      <c r="E41" s="12">
         <v>45367</v>
       </c>
-      <c r="F41" s="16">
+      <c r="F41" s="13">
         <v>3.7499999999999999E-2</v>
       </c>
-      <c r="G41" s="16">
+      <c r="G41" s="13">
         <v>3.8541666666666703E-2</v>
       </c>
-      <c r="H41" s="17"/>
-      <c r="I41" s="18"/>
-      <c r="J41" s="19"/>
-      <c r="K41" s="15">
+      <c r="H41" s="14"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="16"/>
+      <c r="K41" s="12">
         <v>45367</v>
       </c>
-      <c r="L41" s="16">
+      <c r="L41" s="13">
         <v>3.7499999999999999E-2</v>
       </c>
-      <c r="M41" s="16">
+      <c r="M41" s="13">
         <v>3.8541666666666703E-2</v>
       </c>
-      <c r="N41" s="17"/>
-      <c r="O41" s="18"/>
-      <c r="P41" s="19"/>
+      <c r="N41" s="14"/>
+      <c r="O41" s="15"/>
+      <c r="P41" s="16"/>
     </row>
     <row r="42" spans="1:16" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="15">
+      <c r="A42" s="12">
         <v>45261</v>
       </c>
-      <c r="B42" s="16">
+      <c r="B42" s="13">
         <v>3.8541666666666703E-2</v>
       </c>
-      <c r="C42" s="16">
+      <c r="C42" s="13">
         <v>3.9583333333333401E-2</v>
       </c>
-      <c r="D42" s="17"/>
-      <c r="E42" s="15">
+      <c r="D42" s="14"/>
+      <c r="E42" s="12">
         <v>45368</v>
       </c>
-      <c r="F42" s="16">
+      <c r="F42" s="13">
         <v>3.8541666666666703E-2</v>
       </c>
-      <c r="G42" s="16">
+      <c r="G42" s="13">
         <v>3.9583333333333401E-2</v>
       </c>
-      <c r="H42" s="17"/>
-      <c r="I42" s="18"/>
-      <c r="J42" s="19"/>
-      <c r="K42" s="15">
+      <c r="H42" s="14"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="16"/>
+      <c r="K42" s="12">
         <v>45368</v>
       </c>
-      <c r="L42" s="16">
+      <c r="L42" s="13">
         <v>3.8541666666666703E-2</v>
       </c>
-      <c r="M42" s="16">
+      <c r="M42" s="13">
         <v>3.9583333333333401E-2</v>
       </c>
-      <c r="N42" s="17"/>
-      <c r="O42" s="18"/>
-      <c r="P42" s="19"/>
+      <c r="N42" s="14"/>
+      <c r="O42" s="15"/>
+      <c r="P42" s="16"/>
     </row>
     <row r="43" spans="1:16" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="15">
+      <c r="A43" s="12">
         <v>45262</v>
       </c>
-      <c r="B43" s="16">
+      <c r="B43" s="13">
         <v>3.9583333333333297E-2</v>
       </c>
-      <c r="C43" s="16">
+      <c r="C43" s="13">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D43" s="17"/>
+      <c r="D43" s="14"/>
       <c r="E43" s="4">
         <v>45262</v>
       </c>
@@ -2553,20 +2601,20 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="N43" s="1"/>
-      <c r="O43" s="11"/>
-      <c r="P43" s="12"/>
+      <c r="O43" s="10"/>
+      <c r="P43" s="11"/>
     </row>
     <row r="44" spans="1:16" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="15">
+      <c r="A44" s="12">
         <v>45263</v>
       </c>
-      <c r="B44" s="16">
+      <c r="B44" s="13">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="C44" s="16">
+      <c r="C44" s="13">
         <v>4.5833333333333302E-2</v>
       </c>
-      <c r="D44" s="17"/>
+      <c r="D44" s="14"/>
       <c r="E44" s="4">
         <v>45263</v>
       </c>
@@ -2587,20 +2635,20 @@
         <v>4.5833333333333302E-2</v>
       </c>
       <c r="N44" s="1"/>
-      <c r="O44" s="11"/>
-      <c r="P44" s="12"/>
+      <c r="O44" s="10"/>
+      <c r="P44" s="11"/>
     </row>
     <row r="45" spans="1:16" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="15">
+      <c r="A45" s="12">
         <v>45264</v>
       </c>
-      <c r="B45" s="16">
+      <c r="B45" s="13">
         <v>4.5833333333333302E-2</v>
       </c>
-      <c r="C45" s="16">
+      <c r="C45" s="13">
         <v>5.00000000000001E-2</v>
       </c>
-      <c r="D45" s="17"/>
+      <c r="D45" s="14"/>
       <c r="E45" s="4">
         <v>45264</v>
       </c>
@@ -2621,20 +2669,20 @@
         <v>5.00000000000001E-2</v>
       </c>
       <c r="N45" s="1"/>
-      <c r="O45" s="11"/>
-      <c r="P45" s="12"/>
+      <c r="O45" s="10"/>
+      <c r="P45" s="11"/>
     </row>
     <row r="46" spans="1:16" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="15">
+      <c r="A46" s="12">
         <v>45265</v>
       </c>
-      <c r="B46" s="16">
+      <c r="B46" s="13">
         <v>4.9999999999999899E-2</v>
       </c>
-      <c r="C46" s="16">
+      <c r="C46" s="13">
         <v>5.4166666666666898E-2</v>
       </c>
-      <c r="D46" s="17"/>
+      <c r="D46" s="14"/>
       <c r="E46" s="4">
         <v>45265</v>
       </c>
@@ -2655,20 +2703,20 @@
         <v>5.4166666666666898E-2</v>
       </c>
       <c r="N46" s="1"/>
-      <c r="O46" s="11"/>
-      <c r="P46" s="12"/>
+      <c r="O46" s="10"/>
+      <c r="P46" s="11"/>
     </row>
     <row r="47" spans="1:16" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="15">
+      <c r="A47" s="12">
         <v>45266</v>
       </c>
-      <c r="B47" s="16">
+      <c r="B47" s="13">
         <v>5.4166666666666599E-2</v>
       </c>
-      <c r="C47" s="16">
+      <c r="C47" s="13">
         <v>5.8333333333333702E-2</v>
       </c>
-      <c r="D47" s="17"/>
+      <c r="D47" s="14"/>
       <c r="E47" s="4">
         <v>45266</v>
       </c>
@@ -2689,20 +2737,20 @@
         <v>5.8333333333333702E-2</v>
       </c>
       <c r="N47" s="1"/>
-      <c r="O47" s="11"/>
-      <c r="P47" s="12"/>
+      <c r="O47" s="10"/>
+      <c r="P47" s="11"/>
     </row>
     <row r="48" spans="1:16" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="15">
+      <c r="A48" s="12">
         <v>45267</v>
       </c>
-      <c r="B48" s="16">
+      <c r="B48" s="13">
         <v>5.83333333333333E-2</v>
       </c>
-      <c r="C48" s="16">
+      <c r="C48" s="13">
         <v>6.25000000000005E-2</v>
       </c>
-      <c r="D48" s="17"/>
+      <c r="D48" s="14"/>
       <c r="E48" s="4">
         <v>45267</v>
       </c>
@@ -2723,20 +2771,20 @@
         <v>6.25000000000005E-2</v>
       </c>
       <c r="N48" s="1"/>
-      <c r="O48" s="11"/>
-      <c r="P48" s="12"/>
+      <c r="O48" s="10"/>
+      <c r="P48" s="11"/>
     </row>
     <row r="49" spans="1:16" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="15">
+      <c r="A49" s="12">
         <v>45268</v>
       </c>
-      <c r="B49" s="16">
+      <c r="B49" s="13">
         <v>6.2499999999999903E-2</v>
       </c>
-      <c r="C49" s="16">
+      <c r="C49" s="13">
         <v>6.6666666666667304E-2</v>
       </c>
-      <c r="D49" s="17"/>
+      <c r="D49" s="14"/>
       <c r="E49" s="4">
         <v>45268</v>
       </c>
@@ -2757,20 +2805,20 @@
         <v>6.6666666666667304E-2</v>
       </c>
       <c r="N49" s="1"/>
-      <c r="O49" s="11"/>
-      <c r="P49" s="12"/>
+      <c r="O49" s="10"/>
+      <c r="P49" s="11"/>
     </row>
     <row r="50" spans="1:16" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="15">
+      <c r="A50" s="12">
         <v>45269</v>
       </c>
-      <c r="B50" s="16">
+      <c r="B50" s="13">
         <v>6.6666666666666499E-2</v>
       </c>
-      <c r="C50" s="16">
+      <c r="C50" s="13">
         <v>7.0833333333334095E-2</v>
       </c>
-      <c r="D50" s="17"/>
+      <c r="D50" s="14"/>
       <c r="E50" s="4">
         <v>45269</v>
       </c>
@@ -2791,20 +2839,20 @@
         <v>7.0833333333334095E-2</v>
       </c>
       <c r="N50" s="1"/>
-      <c r="O50" s="11"/>
-      <c r="P50" s="12"/>
+      <c r="O50" s="10"/>
+      <c r="P50" s="11"/>
     </row>
     <row r="51" spans="1:16" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="15">
+      <c r="A51" s="12">
         <v>45270</v>
       </c>
-      <c r="B51" s="16">
+      <c r="B51" s="13">
         <v>7.0833333333333207E-2</v>
       </c>
-      <c r="C51" s="16">
+      <c r="C51" s="13">
         <v>7.5000000000000899E-2</v>
       </c>
-      <c r="D51" s="17"/>
+      <c r="D51" s="14"/>
       <c r="E51" s="4">
         <v>45270</v>
       </c>
@@ -2825,20 +2873,20 @@
         <v>7.5000000000000899E-2</v>
       </c>
       <c r="N51" s="1"/>
-      <c r="O51" s="11"/>
-      <c r="P51" s="12"/>
+      <c r="O51" s="10"/>
+      <c r="P51" s="11"/>
     </row>
     <row r="52" spans="1:16" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="15">
+      <c r="A52" s="12">
         <v>45271</v>
       </c>
-      <c r="B52" s="16">
+      <c r="B52" s="13">
         <v>7.4999999999999803E-2</v>
       </c>
-      <c r="C52" s="16">
+      <c r="C52" s="13">
         <v>7.9166666666667704E-2</v>
       </c>
-      <c r="D52" s="17"/>
+      <c r="D52" s="14"/>
       <c r="E52" s="4">
         <v>45271</v>
       </c>
@@ -2859,20 +2907,20 @@
         <v>7.9166666666667704E-2</v>
       </c>
       <c r="N52" s="1"/>
-      <c r="O52" s="11"/>
-      <c r="P52" s="12"/>
+      <c r="O52" s="10"/>
+      <c r="P52" s="11"/>
     </row>
     <row r="53" spans="1:16" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="15">
+      <c r="A53" s="12">
         <v>45272</v>
       </c>
-      <c r="B53" s="16">
+      <c r="B53" s="13">
         <v>7.9166666666666399E-2</v>
       </c>
-      <c r="C53" s="16">
+      <c r="C53" s="13">
         <v>8.3333333333334494E-2</v>
       </c>
-      <c r="D53" s="17"/>
+      <c r="D53" s="14"/>
       <c r="E53" s="4">
         <v>45272</v>
       </c>
@@ -2893,20 +2941,20 @@
         <v>8.3333333333334494E-2</v>
       </c>
       <c r="N53" s="1"/>
-      <c r="O53" s="11"/>
-      <c r="P53" s="12"/>
+      <c r="O53" s="10"/>
+      <c r="P53" s="11"/>
     </row>
     <row r="54" spans="1:16" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="15">
+      <c r="A54" s="12">
         <v>45273</v>
       </c>
-      <c r="B54" s="16">
+      <c r="B54" s="13">
         <v>8.3333333333333107E-2</v>
       </c>
-      <c r="C54" s="16">
+      <c r="C54" s="13">
         <v>9.0277777777777776E-2</v>
       </c>
-      <c r="D54" s="17"/>
+      <c r="D54" s="14"/>
       <c r="E54" s="4">
         <v>45273</v>
       </c>
@@ -2927,20 +2975,20 @@
         <v>9.0277777777777776E-2</v>
       </c>
       <c r="N54" s="1"/>
-      <c r="O54" s="11"/>
-      <c r="P54" s="12"/>
+      <c r="O54" s="10"/>
+      <c r="P54" s="11"/>
     </row>
     <row r="55" spans="1:16" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="15">
+      <c r="A55" s="12">
         <v>45274</v>
       </c>
-      <c r="B55" s="16">
+      <c r="B55" s="13">
         <v>9.0277777777777776E-2</v>
       </c>
-      <c r="C55" s="16">
+      <c r="C55" s="13">
         <v>9.7222222222222224E-2</v>
       </c>
-      <c r="D55" s="17"/>
+      <c r="D55" s="14"/>
       <c r="E55" s="4">
         <v>45274</v>
       </c>
@@ -2961,20 +3009,20 @@
         <v>9.7222222222222224E-2</v>
       </c>
       <c r="N55" s="1"/>
-      <c r="O55" s="11"/>
-      <c r="P55" s="12"/>
+      <c r="O55" s="10"/>
+      <c r="P55" s="11"/>
     </row>
     <row r="56" spans="1:16" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A56" s="15">
+      <c r="A56" s="12">
         <v>45275</v>
       </c>
-      <c r="B56" s="16">
+      <c r="B56" s="13">
         <v>9.7222222222222404E-2</v>
       </c>
-      <c r="C56" s="16">
+      <c r="C56" s="13">
         <v>0.104166666666667</v>
       </c>
-      <c r="D56" s="17"/>
+      <c r="D56" s="14"/>
       <c r="E56" s="4">
         <v>45275</v>
       </c>
@@ -2995,20 +3043,20 @@
         <v>0.104166666666667</v>
       </c>
       <c r="N56" s="1"/>
-      <c r="O56" s="11"/>
-      <c r="P56" s="12"/>
+      <c r="O56" s="10"/>
+      <c r="P56" s="11"/>
     </row>
     <row r="57" spans="1:16" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="15">
+      <c r="A57" s="12">
         <v>45276</v>
       </c>
-      <c r="B57" s="16">
+      <c r="B57" s="13">
         <v>0.104166666666667</v>
       </c>
-      <c r="C57" s="16">
+      <c r="C57" s="13">
         <v>0.11111111111111099</v>
       </c>
-      <c r="D57" s="17"/>
+      <c r="D57" s="14"/>
       <c r="E57" s="4">
         <v>45276</v>
       </c>
@@ -3029,20 +3077,20 @@
         <v>0.11111111111111099</v>
       </c>
       <c r="N57" s="1"/>
-      <c r="O57" s="11"/>
-      <c r="P57" s="12"/>
+      <c r="O57" s="10"/>
+      <c r="P57" s="11"/>
     </row>
     <row r="58" spans="1:16" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="15">
+      <c r="A58" s="12">
         <v>45277</v>
       </c>
-      <c r="B58" s="16">
+      <c r="B58" s="13">
         <v>0.11111111111111199</v>
       </c>
-      <c r="C58" s="16">
+      <c r="C58" s="13">
         <v>0.118055555555556</v>
       </c>
-      <c r="D58" s="17"/>
+      <c r="D58" s="14"/>
       <c r="E58" s="4">
         <v>45277</v>
       </c>
@@ -3063,20 +3111,20 @@
         <v>0.118055555555556</v>
       </c>
       <c r="N58" s="1"/>
-      <c r="O58" s="11"/>
-      <c r="P58" s="12"/>
+      <c r="O58" s="10"/>
+      <c r="P58" s="11"/>
     </row>
     <row r="59" spans="1:16" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="15">
+      <c r="A59" s="12">
         <v>45278</v>
       </c>
-      <c r="B59" s="16">
+      <c r="B59" s="13">
         <v>0.118055555555556</v>
       </c>
-      <c r="C59" s="16">
+      <c r="C59" s="13">
         <v>0.125</v>
       </c>
-      <c r="D59" s="17"/>
+      <c r="D59" s="14"/>
       <c r="E59" s="4">
         <v>45278</v>
       </c>
@@ -3097,20 +3145,20 @@
         <v>0.125</v>
       </c>
       <c r="N59" s="1"/>
-      <c r="O59" s="11"/>
-      <c r="P59" s="12"/>
+      <c r="O59" s="10"/>
+      <c r="P59" s="11"/>
     </row>
     <row r="60" spans="1:16" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A60" s="15">
+      <c r="A60" s="12">
         <v>45279</v>
       </c>
-      <c r="B60" s="16">
+      <c r="B60" s="13">
         <v>0.125000000000001</v>
       </c>
-      <c r="C60" s="16">
+      <c r="C60" s="13">
         <v>0.131944444444444</v>
       </c>
-      <c r="D60" s="17"/>
+      <c r="D60" s="14"/>
       <c r="E60" s="4">
         <v>45279</v>
       </c>
@@ -3131,20 +3179,20 @@
         <v>0.131944444444444</v>
       </c>
       <c r="N60" s="1"/>
-      <c r="O60" s="11"/>
-      <c r="P60" s="12"/>
+      <c r="O60" s="10"/>
+      <c r="P60" s="11"/>
     </row>
     <row r="61" spans="1:16" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A61" s="15">
+      <c r="A61" s="12">
         <v>45280</v>
       </c>
-      <c r="B61" s="16">
+      <c r="B61" s="13">
         <v>0.131944444444446</v>
       </c>
-      <c r="C61" s="16">
+      <c r="C61" s="13">
         <v>0.13888888888888901</v>
       </c>
-      <c r="D61" s="17"/>
+      <c r="D61" s="14"/>
       <c r="E61" s="4">
         <v>45280</v>
       </c>
@@ -3165,20 +3213,20 @@
         <v>0.13888888888888901</v>
       </c>
       <c r="N61" s="1"/>
-      <c r="O61" s="11"/>
-      <c r="P61" s="12"/>
+      <c r="O61" s="10"/>
+      <c r="P61" s="11"/>
     </row>
     <row r="62" spans="1:16" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A62" s="15">
+      <c r="A62" s="12">
         <v>45281</v>
       </c>
-      <c r="B62" s="16">
+      <c r="B62" s="13">
         <v>0.138888888888891</v>
       </c>
-      <c r="C62" s="16">
+      <c r="C62" s="13">
         <v>0.14583333333333301</v>
       </c>
-      <c r="D62" s="17"/>
+      <c r="D62" s="14"/>
       <c r="E62" s="4">
         <v>45281</v>
       </c>
@@ -3199,20 +3247,20 @@
         <v>0.14583333333333301</v>
       </c>
       <c r="N62" s="1"/>
-      <c r="O62" s="11"/>
-      <c r="P62" s="12"/>
+      <c r="O62" s="10"/>
+      <c r="P62" s="11"/>
     </row>
     <row r="63" spans="1:16" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A63" s="15">
+      <c r="A63" s="12">
         <v>45282</v>
       </c>
-      <c r="B63" s="16">
+      <c r="B63" s="13">
         <v>0.14583333333333501</v>
       </c>
-      <c r="C63" s="16">
+      <c r="C63" s="13">
         <v>0.15277777777777801</v>
       </c>
-      <c r="D63" s="17"/>
+      <c r="D63" s="14"/>
       <c r="E63" s="4">
         <v>45282</v>
       </c>
@@ -3233,20 +3281,20 @@
         <v>0.15277777777777801</v>
       </c>
       <c r="N63" s="1"/>
-      <c r="O63" s="11"/>
-      <c r="P63" s="12"/>
+      <c r="O63" s="10"/>
+      <c r="P63" s="11"/>
     </row>
     <row r="64" spans="1:16" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A64" s="15">
+      <c r="A64" s="12">
         <v>45283</v>
       </c>
-      <c r="B64" s="16">
+      <c r="B64" s="13">
         <v>0.15277777777778001</v>
       </c>
-      <c r="C64" s="16">
+      <c r="C64" s="13">
         <v>0.15972222222222199</v>
       </c>
-      <c r="D64" s="17"/>
+      <c r="D64" s="14"/>
       <c r="E64" s="4">
         <v>45283</v>
       </c>
@@ -3267,20 +3315,20 @@
         <v>0.15972222222222199</v>
       </c>
       <c r="N64" s="1"/>
-      <c r="O64" s="11"/>
-      <c r="P64" s="12"/>
+      <c r="O64" s="10"/>
+      <c r="P64" s="11"/>
     </row>
     <row r="65" spans="1:16" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A65" s="15">
+      <c r="A65" s="12">
         <v>45284</v>
       </c>
-      <c r="B65" s="16">
+      <c r="B65" s="13">
         <v>0.15972222222222399</v>
       </c>
-      <c r="C65" s="16">
+      <c r="C65" s="13">
         <v>0.16666666666666699</v>
       </c>
-      <c r="D65" s="17"/>
+      <c r="D65" s="14"/>
       <c r="E65" s="4">
         <v>45284</v>
       </c>
@@ -3301,20 +3349,20 @@
         <v>0.16666666666666699</v>
       </c>
       <c r="N65" s="1"/>
-      <c r="O65" s="11"/>
-      <c r="P65" s="12"/>
+      <c r="O65" s="10"/>
+      <c r="P65" s="11"/>
     </row>
     <row r="66" spans="1:16" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A66" s="15">
+      <c r="A66" s="12">
         <v>45285</v>
       </c>
-      <c r="B66" s="16">
+      <c r="B66" s="13">
         <v>0.16666666666666899</v>
       </c>
-      <c r="C66" s="16">
+      <c r="C66" s="13">
         <v>0.17361111111111099</v>
       </c>
-      <c r="D66" s="17"/>
+      <c r="D66" s="14"/>
       <c r="E66" s="4">
         <v>45285</v>
       </c>
@@ -3335,20 +3383,20 @@
         <v>0.17361111111111099</v>
       </c>
       <c r="N66" s="1"/>
-      <c r="O66" s="11"/>
-      <c r="P66" s="12"/>
+      <c r="O66" s="10"/>
+      <c r="P66" s="11"/>
     </row>
     <row r="67" spans="1:16" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A67" s="15">
+      <c r="A67" s="12">
         <v>45286</v>
       </c>
-      <c r="B67" s="16">
+      <c r="B67" s="13">
         <v>0.17361111111111399</v>
       </c>
-      <c r="C67" s="16">
+      <c r="C67" s="13">
         <v>0.180555555555556</v>
       </c>
-      <c r="D67" s="17"/>
+      <c r="D67" s="14"/>
       <c r="E67" s="4">
         <v>45286</v>
       </c>
@@ -3369,20 +3417,20 @@
         <v>0.180555555555556</v>
       </c>
       <c r="N67" s="1"/>
-      <c r="O67" s="11"/>
-      <c r="P67" s="12"/>
+      <c r="O67" s="10"/>
+      <c r="P67" s="11"/>
     </row>
     <row r="68" spans="1:16" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A68" s="15">
+      <c r="A68" s="12">
         <v>45287</v>
       </c>
-      <c r="B68" s="16">
+      <c r="B68" s="13">
         <v>0.18055555555555899</v>
       </c>
-      <c r="C68" s="16">
+      <c r="C68" s="13">
         <v>0.1875</v>
       </c>
-      <c r="D68" s="17"/>
+      <c r="D68" s="14"/>
       <c r="E68" s="4">
         <v>45287</v>
       </c>
@@ -3403,20 +3451,20 @@
         <v>0.1875</v>
       </c>
       <c r="N68" s="1"/>
-      <c r="O68" s="11"/>
-      <c r="P68" s="12"/>
+      <c r="O68" s="10"/>
+      <c r="P68" s="11"/>
     </row>
     <row r="69" spans="1:16" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A69" s="15">
+      <c r="A69" s="12">
         <v>45288</v>
       </c>
-      <c r="B69" s="16">
+      <c r="B69" s="13">
         <v>0.187500000000003</v>
       </c>
-      <c r="C69" s="16">
+      <c r="C69" s="13">
         <v>0.194444444444445</v>
       </c>
-      <c r="D69" s="17"/>
+      <c r="D69" s="14"/>
       <c r="E69" s="4">
         <v>45288</v>
       </c>
@@ -3437,20 +3485,20 @@
         <v>0.194444444444445</v>
       </c>
       <c r="N69" s="1"/>
-      <c r="O69" s="11"/>
-      <c r="P69" s="12"/>
+      <c r="O69" s="10"/>
+      <c r="P69" s="11"/>
     </row>
     <row r="70" spans="1:16" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A70" s="15">
+      <c r="A70" s="12">
         <v>45289</v>
       </c>
-      <c r="B70" s="16">
+      <c r="B70" s="13">
         <v>0.194444444444448</v>
       </c>
-      <c r="C70" s="16">
+      <c r="C70" s="13">
         <v>0.20138888888888901</v>
       </c>
-      <c r="D70" s="17"/>
+      <c r="D70" s="14"/>
       <c r="E70" s="4">
         <v>45289</v>
       </c>
@@ -3471,20 +3519,20 @@
         <v>0.20138888888888901</v>
       </c>
       <c r="N70" s="1"/>
-      <c r="O70" s="11"/>
-      <c r="P70" s="12"/>
+      <c r="O70" s="10"/>
+      <c r="P70" s="11"/>
     </row>
     <row r="71" spans="1:16" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A71" s="15">
+      <c r="A71" s="12">
         <v>45290</v>
       </c>
-      <c r="B71" s="16">
+      <c r="B71" s="13">
         <v>0.201388888888892</v>
       </c>
-      <c r="C71" s="16">
+      <c r="C71" s="13">
         <v>0.20833333333333401</v>
       </c>
-      <c r="D71" s="17"/>
+      <c r="D71" s="14"/>
       <c r="E71" s="4">
         <v>45290</v>
       </c>
@@ -3505,20 +3553,20 @@
         <v>0.20833333333333401</v>
       </c>
       <c r="N71" s="1"/>
-      <c r="O71" s="11"/>
-      <c r="P71" s="12"/>
+      <c r="O71" s="10"/>
+      <c r="P71" s="11"/>
     </row>
     <row r="72" spans="1:16" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A72" s="15">
+      <c r="A72" s="12">
         <v>45291</v>
       </c>
-      <c r="B72" s="16">
+      <c r="B72" s="13">
         <v>0.20833333333333701</v>
       </c>
-      <c r="C72" s="16">
+      <c r="C72" s="13">
         <v>0.21527777777777801</v>
       </c>
-      <c r="D72" s="17"/>
+      <c r="D72" s="14"/>
       <c r="E72" s="4">
         <v>45291</v>
       </c>
@@ -3539,8 +3587,8 @@
         <v>0.21527777777777801</v>
       </c>
       <c r="N72" s="1"/>
-      <c r="O72" s="11"/>
-      <c r="P72" s="12"/>
+      <c r="O72" s="10"/>
+      <c r="P72" s="11"/>
     </row>
     <row r="73" spans="1:16" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.35"/>
   </sheetData>
